--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1194"/>
+  <dimension ref="A1:I1195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43144,6 +43144,41 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>15100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1195"/>
+  <dimension ref="A1:I1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43179,6 +43179,43 @@
         <v>15100</v>
       </c>
     </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I1196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1196"/>
+  <dimension ref="A1:I1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43216,6 +43216,41 @@
         </is>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>9900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1197"/>
+  <dimension ref="A1:I1198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43251,6 +43251,41 @@
         <v>9900</v>
       </c>
     </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>78100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1198"/>
+  <dimension ref="A1:I1199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43286,6 +43286,43 @@
         <v>78100</v>
       </c>
     </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43323,6 +43323,43 @@
         </is>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43360,6 +43360,41 @@
         </is>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>11300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43395,6 +43395,41 @@
         <v>11300</v>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43430,6 +43430,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43467,6 +43467,41 @@
         </is>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>1100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43502,6 +43502,43 @@
         <v>1100</v>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43539,6 +43539,43 @@
         </is>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43576,6 +43576,76 @@
         </is>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>5100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43646,6 +43646,80 @@
         <v>5100</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43720,6 +43720,43 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43757,6 +43757,43 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43794,6 +43794,43 @@
         </is>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43831,6 +43831,43 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43868,6 +43868,80 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43942,6 +43942,43 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43979,6 +43979,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1867"/>
+  <dimension ref="A1:I1868"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66731,6 +66731,41 @@
         </is>
       </c>
     </row>
+    <row r="1868">
+      <c r="A1868" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1868" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1868" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1868" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F1868" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1868" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H1868" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1868" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1868"/>
+  <dimension ref="A1:I1869"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66766,6 +66766,41 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="1869">
+      <c r="A1869" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1869" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1869" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1869" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1869" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G1869" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H1869" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I1869" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1869"/>
+  <dimension ref="A1:I1870"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66801,6 +66801,43 @@
         <v>500</v>
       </c>
     </row>
+    <row r="1870">
+      <c r="A1870" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1870" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1870" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1870" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1870" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G1870" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H1870" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I1870" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1870"/>
+  <dimension ref="A1:I1871"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66838,6 +66838,43 @@
         </is>
       </c>
     </row>
+    <row r="1871">
+      <c r="A1871" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1871" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1871" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1871" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1871" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G1871" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H1871" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I1871" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1871"/>
+  <dimension ref="A1:I1872"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66875,6 +66875,43 @@
         </is>
       </c>
     </row>
+    <row r="1872">
+      <c r="A1872" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1872" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1872" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1872" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1872" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G1872" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H1872" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I1872" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1872"/>
+  <dimension ref="A1:I1873"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66912,6 +66912,43 @@
         </is>
       </c>
     </row>
+    <row r="1873">
+      <c r="A1873" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1873" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1873" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1873" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1873" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G1873" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H1873" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I1873" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1873"/>
+  <dimension ref="A1:I1874"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66949,6 +66949,43 @@
         </is>
       </c>
     </row>
+    <row r="1874">
+      <c r="A1874" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1874" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1874" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1874" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1874" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G1874" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H1874" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I1874" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1874"/>
+  <dimension ref="A1:I1875"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66986,6 +66986,43 @@
         </is>
       </c>
     </row>
+    <row r="1875">
+      <c r="A1875" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1875" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1875" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1875" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1875" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G1875" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H1875" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I1875" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1875"/>
+  <dimension ref="A1:I1876"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67023,6 +67023,43 @@
         </is>
       </c>
     </row>
+    <row r="1876">
+      <c r="A1876" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1876" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1876" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1876" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1876" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1876" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G1876" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H1876" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I1876" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1876"/>
+  <dimension ref="A1:I1877"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67060,6 +67060,41 @@
         </is>
       </c>
     </row>
+    <row r="1877">
+      <c r="A1877" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1877" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1877" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1877" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1877" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1877" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1877" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1877" t="n">
+        <v>38300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1877"/>
+  <dimension ref="A1:I1878"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67095,6 +67095,43 @@
         <v>38300</v>
       </c>
     </row>
+    <row r="1878">
+      <c r="A1878" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1878" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1878" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1878" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1878" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1878" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1878" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1878" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1878"/>
+  <dimension ref="A1:I1879"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67132,6 +67132,43 @@
         </is>
       </c>
     </row>
+    <row r="1879">
+      <c r="A1879" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1879" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1879" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1879" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1879" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1879" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1879" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1879" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1879"/>
+  <dimension ref="A1:I1880"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67169,6 +67169,43 @@
         </is>
       </c>
     </row>
+    <row r="1880">
+      <c r="A1880" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1880" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1880" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1880" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1880" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1880" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1880" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1880" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1880"/>
+  <dimension ref="A1:I1881"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67206,6 +67206,43 @@
         </is>
       </c>
     </row>
+    <row r="1881">
+      <c r="A1881" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1881" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1881" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1881" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1881" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1881" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1881" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1881" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7226.xlsx
+++ b/data/7226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1881"/>
+  <dimension ref="A1:I1882"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67243,6 +67243,43 @@
         </is>
       </c>
     </row>
+    <row r="1882">
+      <c r="A1882" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1882" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="D1882" t="inlineStr">
+        <is>
+          <t>WATTA</t>
+        </is>
+      </c>
+      <c r="E1882" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1882" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1882" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1882" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1882" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
